--- a/data/trans_camb/P40_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P40_R-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,73</t>
+          <t>-18,19</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-13,69</t>
+          <t>-26,45</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-13,37</t>
+          <t>-25,03</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,18</t>
+          <t>-28,15</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-2,2</t>
+          <t>1,75</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-2,89</t>
+          <t>-2,48</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-0,06</t>
+          <t>-2,0</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-7,41</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-7,65</t>
+          <t>-7,57</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-13,72</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-12,81</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-12,45</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-18,95; 22,12</t>
+          <t>-52,61; 2,8</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-33,56; -3,28</t>
+          <t>-57,83; -7,5</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-33,29; -2,88</t>
+          <t>-56,57; -5,88</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,07; 11,52</t>
+          <t>-62,03; -9,58</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-9,43; 6,18</t>
+          <t>-10,5; 15,67</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-10,3; 4,92</t>
+          <t>-13,78; 8,78</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-9,99; 12,53</t>
+          <t>-12,97; 10,12</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-18,48; -1,11</t>
+          <t>-10,29; 14,14</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-19,02; -1,25</t>
+          <t>-26,33; 4,88</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-33,62; -2,91</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-31,47; -1,25</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-31,32; -1,64</t>
         </is>
       </c>
     </row>
@@ -738,47 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-8,7%</t>
+          <t>-56,36%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-68,72%</t>
+          <t>-81,92%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-67,1%</t>
+          <t>-77,53%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>11,0%</t>
+          <t>-87,19%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-20,49%</t>
+          <t>14,17%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-26,91%</t>
+          <t>-20,02%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-0,41%</t>
+          <t>-16,19%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-49,61%</t>
+          <t>8,74%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-51,22%</t>
+          <t>-34,92%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-63,29%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-59,1%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-57,43%</t>
         </is>
       </c>
     </row>
@@ -791,47 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-75,02; 180,43</t>
+          <t>-94,33; 23,68</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-94,94; -18,68</t>
+          <t>-100,0; -29,71</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-93,05; -12,27</t>
+          <t>-100,0; -25,8</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-44,55; 169,63</t>
+          <t>-100,0; -51,48</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-64,67; 106,55</t>
+          <t>-61,36; 233,04</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-69,76; 83,47</t>
+          <t>-74,36; 159,99</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-52,08; 112,56</t>
+          <t>-74,37; 182,82</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-77,15; -5,34</t>
+          <t>-61,07; 225,14</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-77,82; -7,8</t>
+          <t>-78,0; 44,46</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-90,03; -12,82</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-87,28; -0,34</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-83,96; -2,74</t>
         </is>
       </c>
     </row>
@@ -848,47 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,53</t>
+          <t>-0,31</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-9,14</t>
+          <t>-10,02</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-7,96</t>
+          <t>-9,24</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-3,53</t>
+          <t>-7,47</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-10,61</t>
+          <t>-2,02</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-6,76</t>
+          <t>-9,25</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-2,61</t>
+          <t>-4,34</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-10,11</t>
+          <t>-9,0</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-7,81</t>
+          <t>-1,17</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-9,74</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-7,1</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-8,41</t>
         </is>
       </c>
     </row>
@@ -901,47 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-10,57; 8,07</t>
+          <t>-13,59; 14,93</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-17,62; -3,17</t>
+          <t>-24,28; -1,37</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-16,88; -0,91</t>
+          <t>-22,77; -0,25</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-10,8; 3,4</t>
+          <t>-22,63; 1,9</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-17,77; -4,75</t>
+          <t>-11,9; 7,51</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-14,24; -0,21</t>
+          <t>-17,47; 0,14</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-7,81; 3,84</t>
+          <t>-12,91; 5,61</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-15,32; -5,31</t>
+          <t>-17,21; -0,5</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-13,25; -3,0</t>
+          <t>-9,34; 6,62</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-17,05; -3,31</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-14,35; -0,57</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-17,09; -2,36</t>
         </is>
       </c>
     </row>
@@ -954,47 +1068,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-9,31%</t>
+          <t>-1,69%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-55,71%</t>
+          <t>-54,51%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-48,52%</t>
+          <t>-50,23%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-13,36%</t>
+          <t>-40,6%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-40,18%</t>
+          <t>-7,69%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-25,59%</t>
+          <t>-35,21%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-12,07%</t>
+          <t>-16,53%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-46,73%</t>
+          <t>-34,25%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-36,11%</t>
+          <t>-5,22%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-43,36%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-31,62%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-37,44%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1136,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-49,52; 67,54</t>
+          <t>-55,2; 116,8</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-76,55; -22,79</t>
+          <t>-81,36; -9,18</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-74,13; 0,81</t>
+          <t>-80,65; 7,71</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-35,93; 14,57</t>
+          <t>-77,53; 20,33</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-57,68; -20,41</t>
+          <t>-38,18; 33,74</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-45,17; -0,12</t>
+          <t>-57,16; 0,58</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-31,79; 19,75</t>
+          <t>-42,97; 28,07</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-60,97; -27,11</t>
+          <t>-56,37; -1,07</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-53,34; -15,58</t>
+          <t>-36,45; 35,96</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-63,19; -16,89</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-53,92; -1,36</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-60,27; -13,01</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1208,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,36</t>
+          <t>-1,43</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-2,19</t>
+          <t>1,66</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-5,3</t>
+          <t>-2,78</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,97</t>
+          <t>-5,98</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-3,69</t>
+          <t>2,09</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-3,01</t>
+          <t>-2,84</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>-2,17</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-3,01</t>
+          <t>-1,71</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-4,14</t>
+          <t>0,59</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-0,85</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-2,52</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-3,86</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1276,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-8,25; 7,86</t>
+          <t>-11,4; 10,63</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,51; 6,62</t>
+          <t>-8,75; 13,72</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-12,77; 2,39</t>
+          <t>-13,34; 7,47</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,8; 8,59</t>
+          <t>-16,55; 0,96</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-9,38; 2,99</t>
+          <t>-5,66; 9,93</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-9,01; 3,78</t>
+          <t>-10,13; 4,67</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,01; 5,98</t>
+          <t>-10,09; 5,2</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-8,53; 1,64</t>
+          <t>-9,6; 6,23</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-9,44; 0,43</t>
+          <t>-5,65; 6,91</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-6,86; 5,77</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-8,78; 3,21</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-10,43; 0,7</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1344,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-2,81%</t>
+          <t>-13,59%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-17,22%</t>
+          <t>15,8%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-41,68%</t>
+          <t>-26,41%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>12,89%</t>
+          <t>-56,8%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-24,13%</t>
+          <t>14,38%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-19,68%</t>
+          <t>-19,56%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>6,42%</t>
+          <t>-14,94%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-21,32%</t>
+          <t>-11,78%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-29,33%</t>
+          <t>4,6%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-6,69%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-19,72%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-30,24%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1412,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-53,85; 90,73</t>
+          <t>-74,42; 227,19</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-61,48; 85,26</t>
+          <t>-64,44; 242,6</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-75,59; 34,42</t>
+          <t>-81,83; 166,09</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-26,64; 70,71</t>
+          <t>-90,71; 38,35</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-51,4; 28,6</t>
+          <t>-31,58; 97,55</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-50,34; 32,28</t>
+          <t>-54,42; 45,78</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-29,06; 52,03</t>
+          <t>-54,44; 52,74</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-50,63; 15,29</t>
+          <t>-51,54; 66,18</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-54,53; 4,2</t>
+          <t>-36,62; 66,76</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-44,14; 58,18</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-54,73; 35,11</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-61,22; 8,91</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1484,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,12</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-7,59</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-7,92</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,73</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-6,71</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-4,85</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-0,94</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-7,17</t>
+          <t>—</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-6,44</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1552,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-7,1; 5,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-12,61; -3,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-13,32; -3,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,37; 3,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-11,03; -2,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-9,23; -0,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-4,73; 3,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-10,27; -3,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-9,79; -3,32</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1620,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-7,13%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-48,19%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-50,29%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-3,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-33,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-24,58%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-5,24%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-40,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-36,04%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1439,59 +1688,358 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-38,72; 44,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-68,28; -22,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-69,26; -22,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-24,01; 20,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-49,93; -15,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-41,4; -2,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-24,14; 18,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-52,49; -23,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-49,41; -19,83</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-3,17</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-7,92</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-8,96</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>-9,76</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>0,18</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-5,66</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-3,1</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-4,58</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>-1,36</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>-6,76</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>-6,02</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>-7,14</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-11,4; 6,19</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-16,8; -1,23</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-17,97; -2,3</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-18,32; -3,49</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-5,26; 6,13</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-10,67; -0,73</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-8,52; 1,94</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-9,81; 0,66</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-7,04; 3,29</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-11,62; -2,56</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-10,81; -1,74</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-12,15; -2,83</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-18,28%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-45,65%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-51,67%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>-56,23%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>0,91%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-29,01%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-15,9%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-23,49%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-7,35%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>-36,54%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>-32,51%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>-38,58%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-52,38; 51,49</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-70,12; -5,81</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-74,27; -11,08</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-77,25; -22,99</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-23,68; 37,53</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-47,6; -4,09</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-38,22; 11,19</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-44,58; 4,79</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-32,63; 20,45</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-53,67; -15,86</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-50,12; -9,27</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-54,47; -17,15</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
